--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AABB충돌처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 컨트롤러제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +130,18 @@
   </si>
   <si>
     <t>프로젝트 디버깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AABB충돌처리-&gt;OBB충돌처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +200,14 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -554,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +715,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,13 +748,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1040,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK21"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AD9:AE9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1074,13 +1114,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
       <c r="H1" s="18" t="s">
@@ -1121,11 +1161,11 @@
       <c r="AK1" s="20"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -1158,11 +1198,11 @@
       <c r="AK2" s="20"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="18"/>
       <c r="G3" s="22"/>
       <c r="H3" s="18"/>
@@ -1197,47 +1237,47 @@
       <c r="AK3" s="20"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="48" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="49" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="3" t="s">
@@ -1401,9 +1441,10 @@
       <c r="T7" s="35"/>
       <c r="U7" s="35"/>
       <c r="V7" s="38"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="AC7" s="65"/>
     </row>
     <row r="8" spans="1:37">
       <c r="E8" s="6" t="s">
@@ -1426,9 +1467,10 @@
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
       <c r="V8" s="38"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="AD8" s="48"/>
     </row>
     <row r="9" spans="1:37">
       <c r="E9" s="6" t="s">
@@ -1473,13 +1515,13 @@
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
       <c r="V10" s="38"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="63"/>
     </row>
     <row r="11" spans="1:37">
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="2"/>
@@ -1498,10 +1540,11 @@
       <c r="T11" s="2"/>
       <c r="U11" s="35"/>
       <c r="V11" s="47"/>
+      <c r="Z11" s="62"/>
     </row>
     <row r="12" spans="1:37">
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1514,13 +1557,13 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="39"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="62"/>
     </row>
     <row r="13" spans="1:37">
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1533,12 +1576,12 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="39"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
     </row>
     <row r="14" spans="1:37">
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1551,31 +1594,25 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="39"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="58"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="50"/>
     </row>
     <row r="15" spans="1:37">
       <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
+        <v>28</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1587,38 +1624,24 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="39"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="49"/>
     </row>
     <row r="16" spans="1:37">
       <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="39"/>
+        <v>30</v>
+      </c>
+      <c r="AE16" s="66"/>
     </row>
     <row r="17" spans="5:22">
       <c r="E17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="37"/>
+        <v>14</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="37"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1634,14 +1657,14 @@
     </row>
     <row r="18" spans="5:22">
       <c r="E18" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="47"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1656,14 +1679,14 @@
     </row>
     <row r="19" spans="5:22">
       <c r="E19" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1678,7 +1701,7 @@
     </row>
     <row r="20" spans="5:22">
       <c r="E20" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="2"/>
@@ -1686,28 +1709,61 @@
       <c r="I20" s="42"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="32"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="39"/>
     </row>
     <row r="21" spans="5:22">
       <c r="E21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="42"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="36"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="32"/>
+    </row>
+    <row r="22" spans="5:22">
+      <c r="E22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="5:22">
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1717,6 +1773,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -570,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +724,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,28 +766,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1083,7 +1086,7 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1114,13 +1117,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
       <c r="H1" s="18" t="s">
@@ -1161,11 +1164,11 @@
       <c r="AK1" s="20"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -1198,11 +1201,11 @@
       <c r="AK2" s="20"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="18"/>
       <c r="G3" s="22"/>
       <c r="H3" s="18"/>
@@ -1237,47 +1240,47 @@
       <c r="AK3" s="20"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="51" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="52" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="3" t="s">
@@ -1444,7 +1447,7 @@
       <c r="W7" s="48"/>
       <c r="X7" s="49"/>
       <c r="Y7" s="49"/>
-      <c r="AC7" s="65"/>
+      <c r="AC7" s="56"/>
     </row>
     <row r="8" spans="1:37">
       <c r="E8" s="6" t="s">
@@ -1470,7 +1473,7 @@
       <c r="W8" s="48"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="AD8" s="48"/>
+      <c r="AD8" s="66"/>
     </row>
     <row r="9" spans="1:37">
       <c r="E9" s="6" t="s">
@@ -1516,8 +1519,8 @@
       <c r="U10" s="35"/>
       <c r="V10" s="38"/>
       <c r="W10" s="48"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="63"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="55"/>
     </row>
     <row r="11" spans="1:37">
       <c r="E11" s="6" t="s">
@@ -1540,7 +1543,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="35"/>
       <c r="V11" s="47"/>
-      <c r="Z11" s="62"/>
+      <c r="Z11" s="54"/>
     </row>
     <row r="12" spans="1:37">
       <c r="E12" s="6" t="s">
@@ -1557,9 +1560,9 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="39"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="62"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="54"/>
     </row>
     <row r="13" spans="1:37">
       <c r="E13" s="6" t="s">
@@ -1594,16 +1597,16 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="39"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
       <c r="AG14" s="49"/>
       <c r="AH14" s="49"/>
       <c r="AI14" s="49"/>
@@ -1624,14 +1627,15 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="39"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="49"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="54"/>
     </row>
     <row r="16" spans="1:37">
       <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AE16" s="66"/>
+      <c r="AE16" s="67"/>
     </row>
     <row r="17" spans="5:22">
       <c r="E17" s="6" t="s">

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 피킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">확인용 FPS </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무기 쉐이더 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 디버깅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,6 +134,10 @@
   </si>
   <si>
     <t>몬스터 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 피킹 -&gt; 몬스터로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,9 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +733,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -765,15 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1083,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1117,13 +1110,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
       <c r="H1" s="18" t="s">
@@ -1164,11 +1157,11 @@
       <c r="AK1" s="20"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -1201,11 +1194,11 @@
       <c r="AK2" s="20"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="18"/>
       <c r="G3" s="22"/>
       <c r="H3" s="18"/>
@@ -1240,47 +1233,47 @@
       <c r="AK3" s="20"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="57" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="58" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="3" t="s">
@@ -1400,7 +1393,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="34"/>
@@ -1447,11 +1440,11 @@
       <c r="W7" s="48"/>
       <c r="X7" s="49"/>
       <c r="Y7" s="49"/>
-      <c r="AC7" s="56"/>
+      <c r="AC7" s="55"/>
     </row>
     <row r="8" spans="1:37">
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="2"/>
@@ -1473,11 +1466,11 @@
       <c r="W8" s="48"/>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
-      <c r="AD8" s="66"/>
+      <c r="AD8" s="57"/>
     </row>
     <row r="9" spans="1:37">
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="2"/>
@@ -1499,7 +1492,7 @@
     </row>
     <row r="10" spans="1:37">
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="2"/>
@@ -1519,12 +1512,12 @@
       <c r="U10" s="35"/>
       <c r="V10" s="38"/>
       <c r="W10" s="48"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="55"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="54"/>
     </row>
     <row r="11" spans="1:37">
       <c r="E11" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="2"/>
@@ -1543,11 +1536,11 @@
       <c r="T11" s="2"/>
       <c r="U11" s="35"/>
       <c r="V11" s="47"/>
-      <c r="Z11" s="54"/>
+      <c r="Z11" s="53"/>
     </row>
     <row r="12" spans="1:37">
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1560,13 +1553,13 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="39"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="54"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="53"/>
     </row>
     <row r="13" spans="1:37">
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1579,12 +1572,24 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="39"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="1:37">
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1597,55 +1602,48 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="39"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AI14" s="53"/>
     </row>
     <row r="15" spans="1:37">
       <c r="E15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="39"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="54"/>
+      <c r="AE15" s="58"/>
     </row>
     <row r="16" spans="1:37">
       <c r="E16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE16" s="67"/>
-    </row>
-    <row r="17" spans="5:22">
+        <v>14</v>
+      </c>
+      <c r="F16" s="46"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="39"/>
+    </row>
+    <row r="17" spans="5:26">
       <c r="E17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="37"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1658,10 +1656,11 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="39"/>
-    </row>
-    <row r="18" spans="5:22">
+      <c r="Z17" s="53"/>
+    </row>
+    <row r="18" spans="5:26">
       <c r="E18" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="37"/>
@@ -1681,16 +1680,16 @@
       <c r="U18" s="2"/>
       <c r="V18" s="39"/>
     </row>
-    <row r="19" spans="5:22">
+    <row r="19" spans="5:26">
       <c r="E19" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="37"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="47"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1703,71 +1702,49 @@
       <c r="U19" s="2"/>
       <c r="V19" s="39"/>
     </row>
-    <row r="20" spans="5:22">
+    <row r="20" spans="5:26">
       <c r="E20" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="39"/>
-    </row>
-    <row r="21" spans="5:22">
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="32"/>
+    </row>
+    <row r="21" spans="5:26">
       <c r="E21" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="32"/>
-    </row>
-    <row r="22" spans="5:22">
+    </row>
+    <row r="22" spans="5:26">
       <c r="E22" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="47"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="42"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="5:22">
-      <c r="E23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="36"/>
+      <c r="K22" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
